--- a/Database Votanti.xlsx
+++ b/Database Votanti.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11160" windowHeight="7980"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11160" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table1" sheetId="1" r:id="rId1"/>
@@ -621,8 +621,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -753,6 +753,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1119,8 +1126,8 @@
     <xf numFmtId="0" fontId="13" fillId="7" borderId="10" xfId="13" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1477,14 +1484,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
@@ -1494,7 +1501,7 @@
     <col min="6" max="9" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1511,7 +1518,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1528,7 +1535,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -1545,7 +1552,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -1562,7 +1569,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
@@ -1579,7 +1586,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
@@ -1596,7 +1603,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>27</v>
       </c>
@@ -1613,7 +1620,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>31</v>
       </c>
@@ -1630,7 +1637,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>35</v>
       </c>
@@ -1647,7 +1654,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>39</v>
       </c>
@@ -1664,7 +1671,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>43</v>
       </c>
@@ -1681,7 +1688,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>46</v>
       </c>
@@ -1698,7 +1705,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>50</v>
       </c>
@@ -1715,7 +1722,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>54</v>
       </c>
@@ -1732,7 +1739,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>58</v>
       </c>
@@ -1749,7 +1756,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>62</v>
       </c>
@@ -1766,7 +1773,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>66</v>
       </c>
@@ -1783,7 +1790,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>70</v>
       </c>
@@ -1800,7 +1807,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>74</v>
       </c>
@@ -1817,7 +1824,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>78</v>
       </c>
@@ -1834,7 +1841,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>82</v>
       </c>
@@ -1851,7 +1858,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>85</v>
       </c>
@@ -1868,7 +1875,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>89</v>
       </c>
@@ -1885,7 +1892,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>93</v>
       </c>
@@ -1902,7 +1909,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>97</v>
       </c>
@@ -1919,7 +1926,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>101</v>
       </c>
@@ -1936,7 +1943,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>105</v>
       </c>
@@ -1953,7 +1960,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>109</v>
       </c>
@@ -1970,7 +1977,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>113</v>
       </c>
@@ -1987,7 +1994,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>117</v>
       </c>
@@ -2004,7 +2011,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>121</v>
       </c>
@@ -2021,7 +2028,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>125</v>
       </c>
@@ -2038,7 +2045,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>129</v>
       </c>
@@ -2055,7 +2062,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>133</v>
       </c>
@@ -2072,7 +2079,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>137</v>
       </c>
@@ -2089,7 +2096,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>141</v>
       </c>
@@ -2106,7 +2113,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>145</v>
       </c>
@@ -2123,7 +2130,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>149</v>
       </c>
@@ -2140,7 +2147,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>153</v>
       </c>
@@ -2157,7 +2164,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>157</v>
       </c>
@@ -2174,7 +2181,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>161</v>
       </c>
@@ -2191,7 +2198,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>164</v>
       </c>
@@ -2208,7 +2215,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>168</v>
       </c>
@@ -2225,7 +2232,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>171</v>
       </c>
@@ -2242,7 +2249,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>175</v>
       </c>
@@ -2259,7 +2266,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>179</v>
       </c>
@@ -2276,7 +2283,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>183</v>
       </c>
@@ -2293,7 +2300,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>187</v>
       </c>
@@ -2310,7 +2317,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>191</v>
       </c>
@@ -2327,7 +2334,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>195</v>
       </c>
